--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Adam15-Itgb1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Adam15-Itgb1.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>69.00849933333333</v>
+        <v>63.81813833333333</v>
       </c>
       <c r="H2">
-        <v>207.025498</v>
+        <v>191.454415</v>
       </c>
       <c r="I2">
-        <v>0.425280144828222</v>
+        <v>0.5585681932726833</v>
       </c>
       <c r="J2">
-        <v>0.425280144828222</v>
+        <v>0.5585681932726834</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>163.7119853333333</v>
+        <v>159.4836373333333</v>
       </c>
       <c r="N2">
-        <v>491.135956</v>
+        <v>478.450912</v>
       </c>
       <c r="O2">
-        <v>0.2754003062401034</v>
+        <v>0.2983285084902258</v>
       </c>
       <c r="P2">
-        <v>0.2754003062401033</v>
+        <v>0.2983285084902258</v>
       </c>
       <c r="Q2">
-        <v>11297.51843073401</v>
+        <v>10177.94882924183</v>
       </c>
       <c r="R2">
-        <v>101677.6658766061</v>
+        <v>91601.53946317648</v>
       </c>
       <c r="S2">
-        <v>0.1171222821235278</v>
+        <v>0.1666368159891198</v>
       </c>
       <c r="T2">
-        <v>0.1171222821235278</v>
+        <v>0.1666368159891198</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>69.00849933333333</v>
+        <v>63.81813833333333</v>
       </c>
       <c r="H3">
-        <v>207.025498</v>
+        <v>191.454415</v>
       </c>
       <c r="I3">
-        <v>0.425280144828222</v>
+        <v>0.5585681932726833</v>
       </c>
       <c r="J3">
-        <v>0.425280144828222</v>
+        <v>0.5585681932726834</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>517.675491</v>
       </c>
       <c r="O3">
-        <v>0.290282124557779</v>
+        <v>0.3227862111630279</v>
       </c>
       <c r="P3">
-        <v>0.290282124557779</v>
+        <v>0.3227862111630279</v>
       </c>
       <c r="Q3">
-        <v>11908.0029251855</v>
+        <v>11012.36203213808</v>
       </c>
       <c r="R3">
-        <v>107172.0263266695</v>
+        <v>99111.25828924275</v>
       </c>
       <c r="S3">
-        <v>0.1234512239729762</v>
+        <v>0.1802981107826673</v>
       </c>
       <c r="T3">
-        <v>0.1234512239729762</v>
+        <v>0.1802981107826674</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>69.00849933333333</v>
+        <v>63.81813833333333</v>
       </c>
       <c r="H4">
-        <v>207.025498</v>
+        <v>191.454415</v>
       </c>
       <c r="I4">
-        <v>0.425280144828222</v>
+        <v>0.5585681932726833</v>
       </c>
       <c r="J4">
-        <v>0.425280144828222</v>
+        <v>0.5585681932726834</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>111.4881643333333</v>
+        <v>74.38770566666666</v>
       </c>
       <c r="N4">
-        <v>334.464493</v>
+        <v>223.163117</v>
       </c>
       <c r="O4">
-        <v>0.1875481171218523</v>
+        <v>0.1391489036280481</v>
       </c>
       <c r="P4">
-        <v>0.1875481171218523</v>
+        <v>0.1391489036280482</v>
       </c>
       <c r="Q4">
-        <v>7693.63091407139</v>
+        <v>4747.284890534616</v>
       </c>
       <c r="R4">
-        <v>69242.67822664251</v>
+        <v>42725.56401481155</v>
       </c>
       <c r="S4">
-        <v>0.0797604904118417</v>
+        <v>0.07772415169539357</v>
       </c>
       <c r="T4">
-        <v>0.0797604904118417</v>
+        <v>0.0777241516953936</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>69.00849933333333</v>
+        <v>63.81813833333333</v>
       </c>
       <c r="H5">
-        <v>207.025498</v>
+        <v>191.454415</v>
       </c>
       <c r="I5">
-        <v>0.425280144828222</v>
+        <v>0.5585681932726833</v>
       </c>
       <c r="J5">
-        <v>0.425280144828222</v>
+        <v>0.5585681932726834</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>59.73436333333333</v>
+        <v>58.41461433333333</v>
       </c>
       <c r="N5">
-        <v>179.20309</v>
+        <v>175.243843</v>
       </c>
       <c r="O5">
-        <v>0.100486607144627</v>
+        <v>0.1092697975759847</v>
       </c>
       <c r="P5">
-        <v>0.100486607144627</v>
+        <v>0.1092697975759848</v>
       </c>
       <c r="Q5">
-        <v>4122.178772265424</v>
+        <v>3727.911938212982</v>
       </c>
       <c r="R5">
-        <v>37099.60895038881</v>
+        <v>33551.20744391684</v>
       </c>
       <c r="S5">
-        <v>0.04273495883976361</v>
+        <v>0.06103463341128963</v>
       </c>
       <c r="T5">
-        <v>0.04273495883976361</v>
+        <v>0.06103463341128965</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>69.00849933333333</v>
+        <v>63.81813833333333</v>
       </c>
       <c r="H6">
-        <v>207.025498</v>
+        <v>191.454415</v>
       </c>
       <c r="I6">
-        <v>0.425280144828222</v>
+        <v>0.5585681932726833</v>
       </c>
       <c r="J6">
-        <v>0.425280144828222</v>
+        <v>0.5585681932726834</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>86.95798233333333</v>
+        <v>69.746216</v>
       </c>
       <c r="N6">
-        <v>260.873947</v>
+        <v>209.238648</v>
       </c>
       <c r="O6">
-        <v>0.1462828449356384</v>
+        <v>0.1304665791427133</v>
       </c>
       <c r="P6">
-        <v>0.1462828449356383</v>
+        <v>0.1304665791427133</v>
       </c>
       <c r="Q6">
-        <v>6000.839865877845</v>
+        <v>4451.073660914547</v>
       </c>
       <c r="R6">
-        <v>54007.5587929006</v>
+        <v>40059.66294823092</v>
       </c>
       <c r="S6">
-        <v>0.06221118948011263</v>
+        <v>0.07287448139421292</v>
       </c>
       <c r="T6">
-        <v>0.06221118948011262</v>
+        <v>0.07287448139421294</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,13 +853,13 @@
         <v>14.694925</v>
       </c>
       <c r="H7">
-        <v>44.08477500000001</v>
+        <v>44.084775</v>
       </c>
       <c r="I7">
-        <v>0.09056072647012585</v>
+        <v>0.1286173166734377</v>
       </c>
       <c r="J7">
-        <v>0.09056072647012584</v>
+        <v>0.1286173166734377</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>163.7119853333333</v>
+        <v>159.4836373333333</v>
       </c>
       <c r="N7">
-        <v>491.135956</v>
+        <v>478.450912</v>
       </c>
       <c r="O7">
-        <v>0.2754003062401034</v>
+        <v>0.2983285084902258</v>
       </c>
       <c r="P7">
-        <v>0.2754003062401033</v>
+        <v>0.2983285084902258</v>
       </c>
       <c r="Q7">
-        <v>2405.735346074434</v>
+        <v>2343.600089340533</v>
       </c>
       <c r="R7">
-        <v>21651.6181146699</v>
+        <v>21092.4008040648</v>
       </c>
       <c r="S7">
-        <v>0.0249404518031989</v>
+        <v>0.03837021224920171</v>
       </c>
       <c r="T7">
-        <v>0.02494045180319888</v>
+        <v>0.03837021224920172</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,13 +915,13 @@
         <v>14.694925</v>
       </c>
       <c r="H8">
-        <v>44.08477500000001</v>
+        <v>44.084775</v>
       </c>
       <c r="I8">
-        <v>0.09056072647012585</v>
+        <v>0.1286173166734377</v>
       </c>
       <c r="J8">
-        <v>0.09056072647012584</v>
+        <v>0.1286173166734377</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,22 +936,22 @@
         <v>517.675491</v>
       </c>
       <c r="O8">
-        <v>0.290282124557779</v>
+        <v>0.3227862111630279</v>
       </c>
       <c r="P8">
-        <v>0.290282124557779</v>
+        <v>0.3227862111630279</v>
       </c>
       <c r="Q8">
         <v>2535.734171527725</v>
       </c>
       <c r="R8">
-        <v>22821.60754374953</v>
+        <v>22821.60754374952</v>
       </c>
       <c r="S8">
-        <v>0.02628816008124403</v>
+        <v>0.04151589633897428</v>
       </c>
       <c r="T8">
-        <v>0.02628816008124402</v>
+        <v>0.0415158963389743</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,13 +977,13 @@
         <v>14.694925</v>
       </c>
       <c r="H9">
-        <v>44.08477500000001</v>
+        <v>44.084775</v>
       </c>
       <c r="I9">
-        <v>0.09056072647012585</v>
+        <v>0.1286173166734377</v>
       </c>
       <c r="J9">
-        <v>0.09056072647012584</v>
+        <v>0.1286173166734377</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>111.4881643333333</v>
+        <v>74.38770566666666</v>
       </c>
       <c r="N9">
-        <v>334.464493</v>
+        <v>223.163117</v>
       </c>
       <c r="O9">
-        <v>0.1875481171218523</v>
+        <v>0.1391489036280481</v>
       </c>
       <c r="P9">
-        <v>0.1875481171218523</v>
+        <v>0.1391489036280482</v>
       </c>
       <c r="Q9">
-        <v>1638.310213266009</v>
+        <v>1093.121755693742</v>
       </c>
       <c r="R9">
-        <v>14744.79191939408</v>
+        <v>9838.095801243675</v>
       </c>
       <c r="S9">
-        <v>0.01698449373465919</v>
+        <v>0.01789695860269033</v>
       </c>
       <c r="T9">
-        <v>0.01698449373465919</v>
+        <v>0.01789695860269034</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1039,13 +1039,13 @@
         <v>14.694925</v>
       </c>
       <c r="H10">
-        <v>44.08477500000001</v>
+        <v>44.084775</v>
       </c>
       <c r="I10">
-        <v>0.09056072647012585</v>
+        <v>0.1286173166734377</v>
       </c>
       <c r="J10">
-        <v>0.09056072647012584</v>
+        <v>0.1286173166734377</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>59.73436333333333</v>
+        <v>58.41461433333333</v>
       </c>
       <c r="N10">
-        <v>179.20309</v>
+        <v>175.243843</v>
       </c>
       <c r="O10">
-        <v>0.100486607144627</v>
+        <v>0.1092697975759847</v>
       </c>
       <c r="P10">
-        <v>0.100486607144627</v>
+        <v>0.1092697975759848</v>
       </c>
       <c r="Q10">
-        <v>877.7919891060834</v>
+        <v>858.3983765322583</v>
       </c>
       <c r="R10">
-        <v>7900.12790195475</v>
+        <v>7725.585388790325</v>
       </c>
       <c r="S10">
-        <v>0.009100140143535558</v>
+        <v>0.01405398815767286</v>
       </c>
       <c r="T10">
-        <v>0.009100140143535555</v>
+        <v>0.01405398815767287</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1101,13 +1101,13 @@
         <v>14.694925</v>
       </c>
       <c r="H11">
-        <v>44.08477500000001</v>
+        <v>44.084775</v>
       </c>
       <c r="I11">
-        <v>0.09056072647012585</v>
+        <v>0.1286173166734377</v>
       </c>
       <c r="J11">
-        <v>0.09056072647012584</v>
+        <v>0.1286173166734377</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>86.95798233333333</v>
+        <v>69.746216</v>
       </c>
       <c r="N11">
-        <v>260.873947</v>
+        <v>209.238648</v>
       </c>
       <c r="O11">
-        <v>0.1462828449356384</v>
+        <v>0.1304665791427133</v>
       </c>
       <c r="P11">
-        <v>0.1462828449356383</v>
+        <v>0.1304665791427133</v>
       </c>
       <c r="Q11">
-        <v>1277.841028539659</v>
+        <v>1024.9154131538</v>
       </c>
       <c r="R11">
-        <v>11500.56925685693</v>
+        <v>9224.2387183842</v>
       </c>
       <c r="S11">
-        <v>0.01324748070748818</v>
+        <v>0.01678026132489848</v>
       </c>
       <c r="T11">
-        <v>0.01324748070748818</v>
+        <v>0.01678026132489848</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>43.213838</v>
+        <v>17.02115633333333</v>
       </c>
       <c r="H12">
-        <v>129.641514</v>
+        <v>51.063469</v>
       </c>
       <c r="I12">
-        <v>0.2663148374586689</v>
+        <v>0.1489776541406249</v>
       </c>
       <c r="J12">
-        <v>0.2663148374586689</v>
+        <v>0.1489776541406249</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>163.7119853333333</v>
+        <v>159.4836373333333</v>
       </c>
       <c r="N12">
-        <v>491.135956</v>
+        <v>478.450912</v>
       </c>
       <c r="O12">
-        <v>0.2754003062401034</v>
+        <v>0.2983285084902258</v>
       </c>
       <c r="P12">
-        <v>0.2754003062401033</v>
+        <v>0.2983285084902258</v>
       </c>
       <c r="Q12">
-        <v>7074.623212853043</v>
+        <v>2714.595923659303</v>
       </c>
       <c r="R12">
-        <v>63671.60891567738</v>
+        <v>24431.36331293373</v>
       </c>
       <c r="S12">
-        <v>0.07334318779240075</v>
+        <v>0.04444428135814534</v>
       </c>
       <c r="T12">
-        <v>0.07334318779240073</v>
+        <v>0.04444428135814535</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>43.213838</v>
+        <v>17.02115633333333</v>
       </c>
       <c r="H13">
-        <v>129.641514</v>
+        <v>51.063469</v>
       </c>
       <c r="I13">
-        <v>0.2663148374586689</v>
+        <v>0.1489776541406249</v>
       </c>
       <c r="J13">
-        <v>0.2663148374586689</v>
+        <v>0.1489776541406249</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>517.675491</v>
       </c>
       <c r="O13">
-        <v>0.290282124557779</v>
+        <v>0.3227862111630279</v>
       </c>
       <c r="P13">
-        <v>0.290282124557779</v>
+        <v>0.3227862111630279</v>
       </c>
       <c r="Q13">
-        <v>7456.914934881486</v>
+        <v>2937.145154082031</v>
       </c>
       <c r="R13">
-        <v>67112.23441393337</v>
+        <v>26434.30638673828</v>
       </c>
       <c r="S13">
-        <v>0.07730643681876198</v>
+        <v>0.0480879325280083</v>
       </c>
       <c r="T13">
-        <v>0.07730643681876197</v>
+        <v>0.0480879325280083</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>43.213838</v>
+        <v>17.02115633333333</v>
       </c>
       <c r="H14">
-        <v>129.641514</v>
+        <v>51.063469</v>
       </c>
       <c r="I14">
-        <v>0.2663148374586689</v>
+        <v>0.1489776541406249</v>
       </c>
       <c r="J14">
-        <v>0.2663148374586689</v>
+        <v>0.1489776541406249</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>111.4881643333333</v>
+        <v>74.38770566666666</v>
       </c>
       <c r="N14">
-        <v>334.464493</v>
+        <v>223.163117</v>
       </c>
       <c r="O14">
-        <v>0.1875481171218523</v>
+        <v>0.1391489036280481</v>
       </c>
       <c r="P14">
-        <v>0.1875481171218523</v>
+        <v>0.1391489036280482</v>
       </c>
       <c r="Q14">
-        <v>4817.831472418045</v>
+        <v>1266.164767430319</v>
       </c>
       <c r="R14">
-        <v>43360.4832517624</v>
+        <v>11395.48290687287</v>
       </c>
       <c r="S14">
-        <v>0.04994684632698549</v>
+        <v>0.0207300772387465</v>
       </c>
       <c r="T14">
-        <v>0.04994684632698549</v>
+        <v>0.02073007723874651</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>43.213838</v>
+        <v>17.02115633333333</v>
       </c>
       <c r="H15">
-        <v>129.641514</v>
+        <v>51.063469</v>
       </c>
       <c r="I15">
-        <v>0.2663148374586689</v>
+        <v>0.1489776541406249</v>
       </c>
       <c r="J15">
-        <v>0.2663148374586689</v>
+        <v>0.1489776541406249</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>59.73436333333333</v>
+        <v>58.41461433333333</v>
       </c>
       <c r="N15">
-        <v>179.20309</v>
+        <v>175.243843</v>
       </c>
       <c r="O15">
-        <v>0.100486607144627</v>
+        <v>0.1092697975759847</v>
       </c>
       <c r="P15">
-        <v>0.100486607144627</v>
+        <v>0.1092697975759848</v>
       </c>
       <c r="Q15">
-        <v>2581.351100119807</v>
+        <v>994.2842827190408</v>
       </c>
       <c r="R15">
-        <v>23232.15990107826</v>
+        <v>8948.558544471367</v>
       </c>
       <c r="S15">
-        <v>0.02676107444849445</v>
+        <v>0.01627875811129115</v>
       </c>
       <c r="T15">
-        <v>0.02676107444849444</v>
+        <v>0.01627875811129115</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>43.213838</v>
+        <v>17.02115633333333</v>
       </c>
       <c r="H16">
-        <v>129.641514</v>
+        <v>51.063469</v>
       </c>
       <c r="I16">
-        <v>0.2663148374586689</v>
+        <v>0.1489776541406249</v>
       </c>
       <c r="J16">
-        <v>0.2663148374586689</v>
+        <v>0.1489776541406249</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>86.95798233333333</v>
+        <v>69.746216</v>
       </c>
       <c r="N16">
-        <v>260.873947</v>
+        <v>209.238648</v>
       </c>
       <c r="O16">
-        <v>0.1462828449356384</v>
+        <v>0.1304665791427133</v>
       </c>
       <c r="P16">
-        <v>0.1462828449356383</v>
+        <v>0.1304665791427133</v>
       </c>
       <c r="Q16">
-        <v>3757.788161359529</v>
+        <v>1187.161246194435</v>
       </c>
       <c r="R16">
-        <v>33820.09345223576</v>
+        <v>10684.45121574991</v>
       </c>
       <c r="S16">
-        <v>0.0389572920720262</v>
+        <v>0.01943660490443361</v>
       </c>
       <c r="T16">
-        <v>0.03895729207202618</v>
+        <v>0.01943660490443362</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.146216666666667</v>
+        <v>0.7288956666666667</v>
       </c>
       <c r="H17">
-        <v>3.43865</v>
+        <v>2.186687</v>
       </c>
       <c r="I17">
-        <v>0.007063813801397379</v>
+        <v>0.006379658608775693</v>
       </c>
       <c r="J17">
-        <v>0.007063813801397379</v>
+        <v>0.006379658608775693</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>163.7119853333333</v>
+        <v>159.4836373333333</v>
       </c>
       <c r="N17">
-        <v>491.135956</v>
+        <v>478.450912</v>
       </c>
       <c r="O17">
-        <v>0.2754003062401034</v>
+        <v>0.2983285084902258</v>
       </c>
       <c r="P17">
-        <v>0.2754003062401033</v>
+        <v>0.2983285084902258</v>
       </c>
       <c r="Q17">
-        <v>187.6494061221555</v>
+        <v>116.2469321565049</v>
       </c>
       <c r="R17">
-        <v>1688.8446550994</v>
+        <v>1046.222389408544</v>
       </c>
       <c r="S17">
-        <v>0.001945376484127907</v>
+        <v>0.001903234037432881</v>
       </c>
       <c r="T17">
-        <v>0.001945376484127907</v>
+        <v>0.001903234037432881</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>1.146216666666667</v>
+        <v>0.7288956666666667</v>
       </c>
       <c r="H18">
-        <v>3.43865</v>
+        <v>2.186687</v>
       </c>
       <c r="I18">
-        <v>0.007063813801397379</v>
+        <v>0.006379658608775693</v>
       </c>
       <c r="J18">
-        <v>0.007063813801397379</v>
+        <v>0.006379658608775693</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>517.675491</v>
       </c>
       <c r="O18">
-        <v>0.290282124557779</v>
+        <v>0.3227862111630279</v>
       </c>
       <c r="P18">
-        <v>0.290282124557779</v>
+        <v>0.3227862111630279</v>
       </c>
       <c r="Q18">
-        <v>197.78942523635</v>
+        <v>125.777140709813</v>
       </c>
       <c r="R18">
-        <v>1780.10482712715</v>
+        <v>1131.994266388317</v>
       </c>
       <c r="S18">
-        <v>0.002050498877750192</v>
+        <v>0.0020592658308403</v>
       </c>
       <c r="T18">
-        <v>0.002050498877750192</v>
+        <v>0.0020592658308403</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>1.146216666666667</v>
+        <v>0.7288956666666667</v>
       </c>
       <c r="H19">
-        <v>3.43865</v>
+        <v>2.186687</v>
       </c>
       <c r="I19">
-        <v>0.007063813801397379</v>
+        <v>0.006379658608775693</v>
       </c>
       <c r="J19">
-        <v>0.007063813801397379</v>
+        <v>0.006379658608775693</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>111.4881643333333</v>
+        <v>74.38770566666666</v>
       </c>
       <c r="N19">
-        <v>334.464493</v>
+        <v>223.163117</v>
       </c>
       <c r="O19">
-        <v>0.1875481171218523</v>
+        <v>0.1391489036280481</v>
       </c>
       <c r="P19">
-        <v>0.1875481171218523</v>
+        <v>0.1391489036280482</v>
       </c>
       <c r="Q19">
-        <v>127.7895920949389</v>
+        <v>54.22087631370878</v>
       </c>
       <c r="R19">
-        <v>1150.10632885445</v>
+        <v>487.987886823379</v>
       </c>
       <c r="S19">
-        <v>0.001324804978151433</v>
+        <v>0.0008877225009323765</v>
       </c>
       <c r="T19">
-        <v>0.001324804978151433</v>
+        <v>0.0008877225009323767</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>1.146216666666667</v>
+        <v>0.7288956666666667</v>
       </c>
       <c r="H20">
-        <v>3.43865</v>
+        <v>2.186687</v>
       </c>
       <c r="I20">
-        <v>0.007063813801397379</v>
+        <v>0.006379658608775693</v>
       </c>
       <c r="J20">
-        <v>0.007063813801397379</v>
+        <v>0.006379658608775693</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>59.73436333333333</v>
+        <v>58.41461433333333</v>
       </c>
       <c r="N20">
-        <v>179.20309</v>
+        <v>175.243843</v>
       </c>
       <c r="O20">
-        <v>0.100486607144627</v>
+        <v>0.1092697975759847</v>
       </c>
       <c r="P20">
-        <v>0.100486607144627</v>
+        <v>0.1092697975759848</v>
       </c>
       <c r="Q20">
-        <v>68.46852282538889</v>
+        <v>42.57815925757122</v>
       </c>
       <c r="R20">
-        <v>616.2167054284999</v>
+        <v>383.203433318141</v>
       </c>
       <c r="S20">
-        <v>0.0007098186824038126</v>
+        <v>0.0006971040047848084</v>
       </c>
       <c r="T20">
-        <v>0.0007098186824038125</v>
+        <v>0.0006971040047848085</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>1.146216666666667</v>
+        <v>0.7288956666666667</v>
       </c>
       <c r="H21">
-        <v>3.43865</v>
+        <v>2.186687</v>
       </c>
       <c r="I21">
-        <v>0.007063813801397379</v>
+        <v>0.006379658608775693</v>
       </c>
       <c r="J21">
-        <v>0.007063813801397379</v>
+        <v>0.006379658608775693</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>86.95798233333333</v>
+        <v>69.746216</v>
       </c>
       <c r="N21">
-        <v>260.873947</v>
+        <v>209.238648</v>
       </c>
       <c r="O21">
-        <v>0.1462828449356384</v>
+        <v>0.1304665791427133</v>
       </c>
       <c r="P21">
-        <v>0.1462828449356383</v>
+        <v>0.1304665791427133</v>
       </c>
       <c r="Q21">
-        <v>99.67268865017222</v>
+        <v>50.83771460879734</v>
       </c>
       <c r="R21">
-        <v>897.0541978515499</v>
+        <v>457.539431479176</v>
       </c>
       <c r="S21">
-        <v>0.001033314778964035</v>
+        <v>0.0008323322347853262</v>
       </c>
       <c r="T21">
-        <v>0.001033314778964035</v>
+        <v>0.0008323322347853265</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>34.20250066666667</v>
+        <v>17.989968</v>
       </c>
       <c r="H22">
-        <v>102.607502</v>
+        <v>53.969904</v>
       </c>
       <c r="I22">
-        <v>0.2107804774415858</v>
+        <v>0.1574571773044783</v>
       </c>
       <c r="J22">
-        <v>0.2107804774415858</v>
+        <v>0.1574571773044783</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>163.7119853333333</v>
+        <v>159.4836373333333</v>
       </c>
       <c r="N22">
-        <v>491.135956</v>
+        <v>478.450912</v>
       </c>
       <c r="O22">
-        <v>0.2754003062401034</v>
+        <v>0.2983285084902258</v>
       </c>
       <c r="P22">
-        <v>0.2754003062401033</v>
+        <v>0.2983285084902258</v>
       </c>
       <c r="Q22">
-        <v>5599.359287504657</v>
+        <v>2869.105532150273</v>
       </c>
       <c r="R22">
-        <v>50394.23358754191</v>
+        <v>25821.94978935245</v>
       </c>
       <c r="S22">
-        <v>0.05804900803684794</v>
+        <v>0.04697396485632604</v>
       </c>
       <c r="T22">
-        <v>0.05804900803684793</v>
+        <v>0.04697396485632604</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>34.20250066666667</v>
+        <v>17.989968</v>
       </c>
       <c r="H23">
-        <v>102.607502</v>
+        <v>53.969904</v>
       </c>
       <c r="I23">
-        <v>0.2107804774415858</v>
+        <v>0.1574571773044783</v>
       </c>
       <c r="J23">
-        <v>0.2107804774415858</v>
+        <v>0.1574571773044783</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>517.675491</v>
       </c>
       <c r="O23">
-        <v>0.290282124557779</v>
+        <v>0.3227862111630279</v>
       </c>
       <c r="P23">
-        <v>0.290282124557779</v>
+        <v>0.3227862111630279</v>
       </c>
       <c r="Q23">
-        <v>5901.932108681497</v>
+        <v>3104.321839158096</v>
       </c>
       <c r="R23">
-        <v>53117.38897813348</v>
+        <v>27938.89655242286</v>
       </c>
       <c r="S23">
-        <v>0.06118580480704655</v>
+        <v>0.05082500568253765</v>
       </c>
       <c r="T23">
-        <v>0.06118580480704654</v>
+        <v>0.05082500568253765</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>34.20250066666667</v>
+        <v>17.989968</v>
       </c>
       <c r="H24">
-        <v>102.607502</v>
+        <v>53.969904</v>
       </c>
       <c r="I24">
-        <v>0.2107804774415858</v>
+        <v>0.1574571773044783</v>
       </c>
       <c r="J24">
-        <v>0.2107804774415858</v>
+        <v>0.1574571773044783</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>111.4881643333333</v>
+        <v>74.38770566666666</v>
       </c>
       <c r="N24">
-        <v>334.464493</v>
+        <v>223.163117</v>
       </c>
       <c r="O24">
-        <v>0.1875481171218523</v>
+        <v>0.1391489036280481</v>
       </c>
       <c r="P24">
-        <v>0.1875481171218523</v>
+        <v>0.1391489036280482</v>
       </c>
       <c r="Q24">
-        <v>3813.174014936276</v>
+        <v>1338.232444536752</v>
       </c>
       <c r="R24">
-        <v>34318.56613442649</v>
+        <v>12044.09200083077</v>
       </c>
       <c r="S24">
-        <v>0.0395314816702145</v>
+        <v>0.02190999359028534</v>
       </c>
       <c r="T24">
-        <v>0.0395314816702145</v>
+        <v>0.02190999359028534</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>34.20250066666667</v>
+        <v>17.989968</v>
       </c>
       <c r="H25">
-        <v>102.607502</v>
+        <v>53.969904</v>
       </c>
       <c r="I25">
-        <v>0.2107804774415858</v>
+        <v>0.1574571773044783</v>
       </c>
       <c r="J25">
-        <v>0.2107804774415858</v>
+        <v>0.1574571773044783</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>59.73436333333333</v>
+        <v>58.41461433333333</v>
       </c>
       <c r="N25">
-        <v>179.20309</v>
+        <v>175.243843</v>
       </c>
       <c r="O25">
-        <v>0.100486607144627</v>
+        <v>0.1092697975759847</v>
       </c>
       <c r="P25">
-        <v>0.100486607144627</v>
+        <v>0.1092697975759848</v>
       </c>
       <c r="Q25">
-        <v>2043.064601731242</v>
+        <v>1050.877042589008</v>
       </c>
       <c r="R25">
-        <v>18387.58141558118</v>
+        <v>9457.893383301072</v>
       </c>
       <c r="S25">
-        <v>0.02118061503042955</v>
+        <v>0.01720531389094628</v>
       </c>
       <c r="T25">
-        <v>0.02118061503042954</v>
+        <v>0.01720531389094628</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>34.20250066666667</v>
+        <v>17.989968</v>
       </c>
       <c r="H26">
-        <v>102.607502</v>
+        <v>53.969904</v>
       </c>
       <c r="I26">
-        <v>0.2107804774415858</v>
+        <v>0.1574571773044783</v>
       </c>
       <c r="J26">
-        <v>0.2107804774415858</v>
+        <v>0.1574571773044783</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>86.95798233333333</v>
+        <v>69.746216</v>
       </c>
       <c r="N26">
-        <v>260.873947</v>
+        <v>209.238648</v>
       </c>
       <c r="O26">
-        <v>0.1462828449356384</v>
+        <v>0.1304665791427133</v>
       </c>
       <c r="P26">
-        <v>0.1462828449356383</v>
+        <v>0.1304665791427133</v>
       </c>
       <c r="Q26">
-        <v>2974.180448727821</v>
+        <v>1254.732193961088</v>
       </c>
       <c r="R26">
-        <v>26767.62403855039</v>
+        <v>11292.58974564979</v>
       </c>
       <c r="S26">
-        <v>0.03083356789704732</v>
+        <v>0.02054289928438296</v>
       </c>
       <c r="T26">
-        <v>0.03083356789704732</v>
+        <v>0.02054289928438296</v>
       </c>
     </row>
   </sheetData>
